--- a/Tables/consequences_informal.xlsx
+++ b/Tables/consequences_informal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A9F3C-912F-4976-85B3-03AAF2833466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2951B5E-5DB5-4622-9E43-908AC1E5C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17670" yWindow="-5100" windowWidth="21600" windowHeight="11175" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
+    <workbookView xWindow="-14265" yWindow="-6030" windowWidth="14400" windowHeight="12480" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
   </bookViews>
   <sheets>
     <sheet name="consequences_informal" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Log(hourly wage)</t>
+  </si>
+  <si>
+    <t>Weekly hours</t>
+  </si>
+  <si>
+    <t>[2005, 2010]</t>
+  </si>
+  <si>
+    <t>[2010, 2015]</t>
+  </si>
+  <si>
+    <t>No IMSS</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Years of schooling</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -56,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -85,10 +117,28 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -97,11 +147,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,44 +217,7 @@
             <v>(4)</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VARIABLES</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>log_ing</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>hrsocup</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>log_ing</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>hrsocup</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v/>
-          </cell>
-          <cell r="B4" t="str">
-            <v/>
-          </cell>
-          <cell r="C4" t="str">
-            <v/>
-          </cell>
-          <cell r="D4" t="str">
-            <v/>
-          </cell>
-          <cell r="E4" t="str">
-            <v/>
-          </cell>
-        </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>noimss</v>
-          </cell>
           <cell r="B5" t="str">
             <v>-0.232***</v>
           </cell>
@@ -213,9 +249,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>2.sex</v>
-          </cell>
           <cell r="B9" t="str">
             <v>-0.162***</v>
           </cell>
@@ -247,9 +280,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>eda</v>
-          </cell>
           <cell r="B11" t="str">
             <v>0.00238***</v>
           </cell>
@@ -281,9 +311,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>anios_esc</v>
-          </cell>
           <cell r="B13" t="str">
             <v>0.00553***</v>
           </cell>
@@ -314,40 +341,6 @@
             <v>(0.000108)</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Constant</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>2.364***</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>47.07***</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>2.470***</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>47.74***</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v/>
-          </cell>
-          <cell r="B16" t="str">
-            <v>(0.000193)</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>(0.00240)</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>(0.000190)</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>(0.00218)</v>
-          </cell>
-        </row>
         <row r="17">
           <cell r="A17" t="str">
             <v/>
@@ -366,9 +359,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>Observations</v>
-          </cell>
           <cell r="B18" t="str">
             <v>887,534,856</v>
           </cell>
@@ -770,456 +760,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB89162-FA56-443C-ADD6-0B31EE5CE5F6}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+      <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
         <f>[1]Sheet1!A2</f>
         <v/>
       </c>
-      <c r="B2" t="str">
+      <c r="B4" s="7" t="str">
         <f>[1]Sheet1!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C4" s="7" t="str">
         <f>[1]Sheet1!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="str">
         <f>[1]Sheet1!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F4" s="7" t="str">
         <f>[1]Sheet1!E2</f>
         <v>(4)</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="str">
-        <f>[1]Sheet1!A3</f>
-        <v>VARIABLES</v>
-      </c>
-      <c r="B3" s="3" t="str">
-        <f>[1]Sheet1!B3</f>
-        <v>log_ing</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>[1]Sheet1!C3</f>
-        <v>hrsocup</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>[1]Sheet1!D3</f>
-        <v>log_ing</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f>[1]Sheet1!E3</f>
-        <v>hrsocup</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f>[1]Sheet1!A4</f>
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <f>[1]Sheet1!B4</f>
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <f>[1]Sheet1!C4</f>
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <f>[1]Sheet1!D4</f>
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <f>[1]Sheet1!E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f>[1]Sheet1!A5</f>
-        <v>noimss</v>
-      </c>
-      <c r="B5" t="str">
+    <row r="5" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="str">
         <f>[1]Sheet1!B5</f>
         <v>-0.232***</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="4" t="str">
         <f>[1]Sheet1!C5</f>
         <v>-5.826***</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" s="4" t="str">
         <f>[1]Sheet1!D5</f>
         <v>-0.152***</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" s="4" t="str">
         <f>[1]Sheet1!E5</f>
         <v>-6.545***</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]Sheet1!A6</f>
         <v/>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="4" t="str">
         <f>[1]Sheet1!B6</f>
         <v>(0.000117)</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="4" t="str">
         <f>[1]Sheet1!C6</f>
         <v>(0.00136)</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" s="4" t="str">
         <f>[1]Sheet1!D6</f>
         <v>(0.000114)</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" s="4" t="str">
         <f>[1]Sheet1!E6</f>
         <v>(0.00118)</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f>[1]Sheet1!A9</f>
-        <v>2.sex</v>
-      </c>
-      <c r="B7" t="str">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="str">
         <f>[1]Sheet1!B9</f>
         <v>-0.162***</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="4" t="str">
         <f>[1]Sheet1!C9</f>
         <v>-7.577***</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" s="4" t="str">
         <f>[1]Sheet1!D9</f>
         <v>-0.0899***</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" s="4" t="str">
         <f>[1]Sheet1!E9</f>
         <v>-7.428***</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]Sheet1!A10</f>
         <v/>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="4" t="str">
         <f>[1]Sheet1!B10</f>
         <v>(0.000105)</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="4" t="str">
         <f>[1]Sheet1!C10</f>
         <v>(0.00131)</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" s="4" t="str">
         <f>[1]Sheet1!D10</f>
         <v>(0.000100)</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" s="4" t="str">
         <f>[1]Sheet1!E10</f>
         <v>(0.00112)</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f>[1]Sheet1!A11</f>
-        <v>eda</v>
-      </c>
-      <c r="B9" t="str">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="str">
         <f>[1]Sheet1!B11</f>
         <v>0.00238***</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="4" t="str">
         <f>[1]Sheet1!C11</f>
         <v>0.0248***</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" s="4" t="str">
         <f>[1]Sheet1!D11</f>
         <v>-0.00119***</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" s="4" t="str">
         <f>[1]Sheet1!E11</f>
         <v>0.0172***</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>[1]Sheet1!A12</f>
         <v/>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="4" t="str">
         <f>[1]Sheet1!B12</f>
         <v>(3.26e-06)</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="4" t="str">
         <f>[1]Sheet1!C12</f>
         <v>(4.41e-05)</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" s="4" t="str">
         <f>[1]Sheet1!D12</f>
         <v>(3.10e-06)</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" s="4" t="str">
         <f>[1]Sheet1!E12</f>
         <v>(3.82e-05)</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f>[1]Sheet1!A13</f>
-        <v>anios_esc</v>
-      </c>
-      <c r="B11" t="str">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="str">
         <f>[1]Sheet1!B13</f>
         <v>0.00553***</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="4" t="str">
         <f>[1]Sheet1!C13</f>
         <v>0.0406***</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" s="4" t="str">
         <f>[1]Sheet1!D13</f>
         <v>-0.00718***</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" s="4" t="str">
         <f>[1]Sheet1!E13</f>
         <v>0.0351***</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]Sheet1!A14</f>
         <v/>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="4" t="str">
         <f>[1]Sheet1!B14</f>
         <v>(9.97e-06)</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="4" t="str">
         <f>[1]Sheet1!C14</f>
         <v>(0.000117)</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" s="4" t="str">
         <f>[1]Sheet1!D14</f>
         <v>(9.45e-06)</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" s="4" t="str">
         <f>[1]Sheet1!E14</f>
         <v>(0.000108)</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>[1]Sheet1!A15</f>
-        <v>Constant</v>
-      </c>
-      <c r="B13" t="str">
-        <f>[1]Sheet1!B15</f>
-        <v>2.364***</v>
-      </c>
-      <c r="C13" t="str">
-        <f>[1]Sheet1!C15</f>
-        <v>47.07***</v>
-      </c>
-      <c r="D13" t="str">
-        <f>[1]Sheet1!D15</f>
-        <v>2.470***</v>
-      </c>
-      <c r="E13" t="str">
-        <f>[1]Sheet1!E15</f>
-        <v>47.74***</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f>[1]Sheet1!A16</f>
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <f>[1]Sheet1!B16</f>
-        <v>(0.000193)</v>
-      </c>
-      <c r="C14" t="str">
-        <f>[1]Sheet1!C16</f>
-        <v>(0.00240)</v>
-      </c>
-      <c r="D14" t="str">
-        <f>[1]Sheet1!D16</f>
-        <v>(0.000190)</v>
-      </c>
-      <c r="E14" t="str">
-        <f>[1]Sheet1!E16</f>
-        <v>(0.00218)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
         <f>[1]Sheet1!A17</f>
         <v/>
       </c>
-      <c r="B15" t="str">
+      <c r="B13" s="4" t="str">
         <f>[1]Sheet1!B17</f>
         <v/>
       </c>
-      <c r="C15" t="str">
+      <c r="C13" s="4" t="str">
         <f>[1]Sheet1!C17</f>
         <v/>
       </c>
-      <c r="D15" t="str">
+      <c r="E13" s="4" t="str">
         <f>[1]Sheet1!D17</f>
         <v/>
       </c>
-      <c r="E15" t="str">
+      <c r="F13" s="4" t="str">
         <f>[1]Sheet1!E17</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="str">
-        <f>[1]Sheet1!A18</f>
-        <v>Observations</v>
-      </c>
-      <c r="B16" s="1" t="str">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="str">
+        <f>[1]Sheet1!A23</f>
+        <v>Obs</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>[1]Sheet1!B23</f>
+        <v>3.376e+06</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>[1]Sheet1!C23</f>
+        <v>3.376e+06</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="str">
+        <f>[1]Sheet1!D23</f>
+        <v>3.991e+06</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>[1]Sheet1!E23</f>
+        <v>3.991e+06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="str">
         <f>[1]Sheet1!B18</f>
         <v>887,534,856</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C15" s="6" t="str">
         <f>[1]Sheet1!C18</f>
         <v>887,534,856</v>
       </c>
-      <c r="D16" s="1" t="str">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="str">
         <f>[1]Sheet1!D18</f>
         <v>1169577977</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="F15" s="6" t="str">
         <f>[1]Sheet1!E18</f>
         <v>1169577977</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
         <f>[1]Sheet1!A19</f>
         <v>R-squared</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B16" s="4" t="str">
         <f>[1]Sheet1!B19</f>
         <v>0.179</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C16" s="4" t="str">
         <f>[1]Sheet1!C19</f>
         <v>0.162</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E16" s="4" t="str">
         <f>[1]Sheet1!D19</f>
         <v>0.140</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F16" s="4" t="str">
         <f>[1]Sheet1!E19</f>
         <v>0.164</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>[1]Sheet1!A22</f>
+        <v>Dep var mean</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>[1]Sheet1!B22</f>
+        <v>2.272</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>[1]Sheet1!C22</f>
+        <v>41.29</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>[1]Sheet1!D22</f>
+        <v>2.213</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>[1]Sheet1!E22</f>
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Sheet1!A20</f>
         <v>Municipality $\times$ Date FE</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="4" t="str">
         <f>[1]Sheet1!B20</f>
         <v>\checkmark</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="4" t="str">
         <f>[1]Sheet1!C20</f>
         <v>\checkmark</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" s="4" t="str">
         <f>[1]Sheet1!D20</f>
         <v>\checkmark</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" s="4" t="str">
         <f>[1]Sheet1!E20</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="str">
         <f>[1]Sheet1!A21</f>
         <v>Occupation FE</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="7" t="str">
         <f>[1]Sheet1!B21</f>
         <v>\checkmark</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="7" t="str">
         <f>[1]Sheet1!C21</f>
         <v>\checkmark</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="str">
         <f>[1]Sheet1!D21</f>
         <v>\checkmark</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" s="7" t="str">
         <f>[1]Sheet1!E21</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f>[1]Sheet1!A22</f>
-        <v>Dep var mean</v>
-      </c>
-      <c r="B20" t="str">
-        <f>[1]Sheet1!B22</f>
-        <v>2.272</v>
-      </c>
-      <c r="C20" t="str">
-        <f>[1]Sheet1!C22</f>
-        <v>41.29</v>
-      </c>
-      <c r="D20" t="str">
-        <f>[1]Sheet1!D22</f>
-        <v>2.213</v>
-      </c>
-      <c r="E20" t="str">
-        <f>[1]Sheet1!E22</f>
-        <v>41.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="str">
-        <f>[1]Sheet1!A23</f>
-        <v>Obs</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>[1]Sheet1!B23</f>
-        <v>3.376e+06</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>[1]Sheet1!C23</f>
-        <v>3.376e+06</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f>[1]Sheet1!D23</f>
-        <v>3.991e+06</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>[1]Sheet1!E23</f>
-        <v>3.991e+06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/consequences_informal.xlsx
+++ b/Tables/consequences_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2951B5E-5DB5-4622-9E43-908AC1E5C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE50AF7-025C-4353-9746-0E96338B1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14265" yWindow="-6030" windowWidth="14400" windowHeight="12480" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
+    <workbookView xWindow="-15000" yWindow="-4275" windowWidth="14400" windowHeight="8175" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
   </bookViews>
   <sheets>
     <sheet name="consequences_informal" sheetId="1" r:id="rId1"/>
@@ -168,11 +168,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -219,16 +219,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.232***</v>
+            <v>-0.23***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-5.826***</v>
+            <v>-5.83***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.152***</v>
+            <v>-0.15***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-6.545***</v>
+            <v>-6.54***</v>
           </cell>
         </row>
         <row r="6">
@@ -236,30 +236,30 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.000117)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.00136)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.000114)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.00118)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>-0.162***</v>
+            <v>-0.16***</v>
           </cell>
           <cell r="C9" t="str">
-            <v>-7.577***</v>
+            <v>-7.58***</v>
           </cell>
           <cell r="D9" t="str">
-            <v>-0.0899***</v>
+            <v>-0.09***</v>
           </cell>
           <cell r="E9" t="str">
-            <v>-7.428***</v>
+            <v>-7.43***</v>
           </cell>
         </row>
         <row r="10">
@@ -267,30 +267,30 @@
             <v/>
           </cell>
           <cell r="B10" t="str">
-            <v>(0.000105)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C10" t="str">
-            <v>(0.00131)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D10" t="str">
-            <v>(0.000100)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E10" t="str">
-            <v>(0.00112)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.00238***</v>
+            <v>0.00***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.0248***</v>
+            <v>0.02***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.00119***</v>
+            <v>-0.00***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.0172***</v>
+            <v>0.02***</v>
           </cell>
         </row>
         <row r="12">
@@ -298,30 +298,30 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(3.26e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(4.41e-05)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(3.10e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(3.82e-05)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>0.00553***</v>
+            <v>0.01***</v>
           </cell>
           <cell r="C13" t="str">
-            <v>0.0406***</v>
+            <v>0.04***</v>
           </cell>
           <cell r="D13" t="str">
-            <v>-0.00718***</v>
+            <v>-0.01***</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.0351***</v>
+            <v>0.04***</v>
           </cell>
         </row>
         <row r="14">
@@ -329,16 +329,16 @@
             <v/>
           </cell>
           <cell r="B14" t="str">
-            <v>(9.97e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="C14" t="str">
-            <v>(0.000117)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="D14" t="str">
-            <v>(9.45e-06)</v>
+            <v>(0.00)</v>
           </cell>
           <cell r="E14" t="str">
-            <v>(0.000108)</v>
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="17">
@@ -377,16 +377,16 @@
             <v>R-squared</v>
           </cell>
           <cell r="B19" t="str">
-            <v>0.179</v>
+            <v>0.18</v>
           </cell>
           <cell r="C19" t="str">
-            <v>0.162</v>
+            <v>0.16</v>
           </cell>
           <cell r="D19" t="str">
-            <v>0.140</v>
+            <v>0.14</v>
           </cell>
           <cell r="E19" t="str">
-            <v>0.164</v>
+            <v>0.16</v>
           </cell>
         </row>
         <row r="20">
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB89162-FA56-443C-ADD6-0B31EE5CE5F6}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
@@ -785,28 +785,28 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -839,19 +839,19 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>[1]Sheet1!B5</f>
-        <v>-0.232***</v>
+        <v>-0.23***</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>[1]Sheet1!C5</f>
-        <v>-5.826***</v>
+        <v>-5.83***</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>[1]Sheet1!D5</f>
-        <v>-0.152***</v>
+        <v>-0.15***</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>[1]Sheet1!E5</f>
-        <v>-6.545***</v>
+        <v>-6.54***</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -861,19 +861,19 @@
       </c>
       <c r="B6" s="4" t="str">
         <f>[1]Sheet1!B6</f>
-        <v>(0.000117)</v>
+        <v>(0.00)</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>[1]Sheet1!C6</f>
-        <v>(0.00136)</v>
+        <v>(0.00)</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>[1]Sheet1!D6</f>
-        <v>(0.000114)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>[1]Sheet1!E6</f>
-        <v>(0.00118)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -882,19 +882,19 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>[1]Sheet1!B9</f>
-        <v>-0.162***</v>
+        <v>-0.16***</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>[1]Sheet1!C9</f>
-        <v>-7.577***</v>
+        <v>-7.58***</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>[1]Sheet1!D9</f>
-        <v>-0.0899***</v>
+        <v>-0.09***</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>[1]Sheet1!E9</f>
-        <v>-7.428***</v>
+        <v>-7.43***</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -904,19 +904,19 @@
       </c>
       <c r="B8" s="4" t="str">
         <f>[1]Sheet1!B10</f>
-        <v>(0.000105)</v>
+        <v>(0.00)</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>[1]Sheet1!C10</f>
-        <v>(0.00131)</v>
+        <v>(0.00)</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>[1]Sheet1!D10</f>
-        <v>(0.000100)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>[1]Sheet1!E10</f>
-        <v>(0.00112)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -925,19 +925,19 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>[1]Sheet1!B11</f>
-        <v>0.00238***</v>
+        <v>0.00***</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]Sheet1!C11</f>
-        <v>0.0248***</v>
+        <v>0.02***</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>[1]Sheet1!D11</f>
-        <v>-0.00119***</v>
+        <v>-0.00***</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>[1]Sheet1!E11</f>
-        <v>0.0172***</v>
+        <v>0.02***</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,19 +947,19 @@
       </c>
       <c r="B10" s="4" t="str">
         <f>[1]Sheet1!B12</f>
-        <v>(3.26e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>[1]Sheet1!C12</f>
-        <v>(4.41e-05)</v>
+        <v>(0.00)</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>[1]Sheet1!D12</f>
-        <v>(3.10e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>[1]Sheet1!E12</f>
-        <v>(3.82e-05)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -968,19 +968,19 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>[1]Sheet1!B13</f>
-        <v>0.00553***</v>
+        <v>0.01***</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>[1]Sheet1!C13</f>
-        <v>0.0406***</v>
+        <v>0.04***</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>[1]Sheet1!D13</f>
-        <v>-0.00718***</v>
+        <v>-0.01***</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>[1]Sheet1!E13</f>
-        <v>0.0351***</v>
+        <v>0.04***</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -990,19 +990,19 @@
       </c>
       <c r="B12" s="4" t="str">
         <f>[1]Sheet1!B14</f>
-        <v>(9.97e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>[1]Sheet1!C14</f>
-        <v>(0.000117)</v>
+        <v>(0.00)</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>[1]Sheet1!D14</f>
-        <v>(9.45e-06)</v>
+        <v>(0.00)</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>[1]Sheet1!E14</f>
-        <v>(0.000108)</v>
+        <v>(0.00)</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1079,19 +1079,19 @@
       </c>
       <c r="B16" s="4" t="str">
         <f>[1]Sheet1!B19</f>
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>[1]Sheet1!C19</f>
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>[1]Sheet1!D19</f>
-        <v>0.140</v>
+        <v>0.14</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>[1]Sheet1!E19</f>
-        <v>0.164</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">

--- a/Tables/consequences_informal.xlsx
+++ b/Tables/consequences_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE50AF7-025C-4353-9746-0E96338B1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCFFD0-0219-4A1D-B5EB-36E81515B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15000" yWindow="-4275" windowWidth="14400" windowHeight="8175" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
   </bookViews>
   <sheets>
     <sheet name="consequences_informal" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB89162-FA56-443C-ADD6-0B31EE5CE5F6}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>

--- a/Tables/consequences_informal.xlsx
+++ b/Tables/consequences_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCFFD0-0219-4A1D-B5EB-36E81515B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B841A98E-7C22-41B8-8B88-885D6A92FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14750" windowHeight="9050" xr2:uid="{6492928A-A220-4710-893F-C9FA796A895D}"/>
   </bookViews>
   <sheets>
     <sheet name="consequences_informal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Population</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Years of schooling</t>
+  </si>
+  <si>
+    <t>Married</t>
   </si>
 </sst>
 </file>
@@ -222,13 +225,13 @@
             <v>-0.23***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-5.83***</v>
+            <v>-5.79***</v>
           </cell>
           <cell r="D5" t="str">
             <v>-0.15***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-6.54***</v>
+            <v>-6.50***</v>
           </cell>
         </row>
         <row r="6">
@@ -250,16 +253,16 @@
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>-0.16***</v>
+            <v>-0.12***</v>
           </cell>
           <cell r="C9" t="str">
-            <v>-7.58***</v>
+            <v>-7.33***</v>
           </cell>
           <cell r="D9" t="str">
-            <v>-0.09***</v>
+            <v>-0.06***</v>
           </cell>
           <cell r="E9" t="str">
-            <v>-7.43***</v>
+            <v>-7.21***</v>
           </cell>
         </row>
         <row r="10">
@@ -281,16 +284,16 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.00***</v>
+            <v>-0.00***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.02***</v>
+            <v>0.01***</v>
           </cell>
           <cell r="D11" t="str">
             <v>-0.00***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>0.02***</v>
+            <v>0.00***</v>
           </cell>
         </row>
         <row r="12">
@@ -321,7 +324,7 @@
             <v>-0.01***</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.04***</v>
+            <v>0.03***</v>
           </cell>
         </row>
         <row r="14">
@@ -341,119 +344,147 @@
             <v>(0.00)</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v/>
-          </cell>
-          <cell r="B17" t="str">
-            <v/>
-          </cell>
-          <cell r="C17" t="str">
-            <v/>
-          </cell>
-          <cell r="D17" t="str">
-            <v/>
-          </cell>
-          <cell r="E17" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>887,534,856</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>887,534,856</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>1169577977</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>1169577977</v>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>0.25***</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>1.59***</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>0.23***</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>1.50***</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>(0.00)</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>(0.00)</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>R-squared</v>
+            <v/>
           </cell>
           <cell r="B19" t="str">
-            <v>0.18</v>
+            <v/>
           </cell>
           <cell r="C19" t="str">
-            <v>0.16</v>
+            <v/>
           </cell>
           <cell r="D19" t="str">
-            <v>0.14</v>
+            <v/>
           </cell>
           <cell r="E19" t="str">
-            <v>0.16</v>
+            <v/>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>Municipality $\times$ Date FE</v>
-          </cell>
           <cell r="B20" t="str">
-            <v>\checkmark</v>
+            <v>887,534,856</v>
           </cell>
           <cell r="C20" t="str">
-            <v>\checkmark</v>
+            <v>887,534,856</v>
           </cell>
           <cell r="D20" t="str">
-            <v>\checkmark</v>
+            <v>1169577977</v>
           </cell>
           <cell r="E20" t="str">
-            <v>\checkmark</v>
+            <v>1169577977</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Occupation FE</v>
+            <v>R-squared</v>
           </cell>
           <cell r="B21" t="str">
-            <v>\checkmark</v>
+            <v>0.18</v>
           </cell>
           <cell r="C21" t="str">
-            <v>\checkmark</v>
+            <v>0.16</v>
           </cell>
           <cell r="D21" t="str">
-            <v>\checkmark</v>
+            <v>0.14</v>
           </cell>
           <cell r="E21" t="str">
-            <v>\checkmark</v>
+            <v>0.17</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Dep var mean</v>
+            <v>Municipality $\times$ Date FE</v>
           </cell>
           <cell r="B22" t="str">
-            <v>2.272</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="C22" t="str">
-            <v>41.29</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="D22" t="str">
-            <v>2.213</v>
+            <v>\checkmark</v>
           </cell>
           <cell r="E22" t="str">
-            <v>41.21</v>
+            <v>\checkmark</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
+            <v>Occupation FE</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>\checkmark</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>\checkmark</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>\checkmark</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>\checkmark</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Dep var mean</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>2.272</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>41.29</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>2.213</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>41.21</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
             <v>Obs</v>
           </cell>
-          <cell r="B23" t="str">
+          <cell r="B25" t="str">
             <v>3.376e+06</v>
           </cell>
-          <cell r="C23" t="str">
+          <cell r="C25" t="str">
             <v>3.376e+06</v>
           </cell>
-          <cell r="D23" t="str">
+          <cell r="D25" t="str">
             <v>3.991e+06</v>
           </cell>
-          <cell r="E23" t="str">
+          <cell r="E25" t="str">
             <v>3.991e+06</v>
           </cell>
         </row>
@@ -760,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB89162-FA56-443C-ADD6-0B31EE5CE5F6}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F19"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,7 +874,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>[1]Sheet1!C5</f>
-        <v>-5.83***</v>
+        <v>-5.79***</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>[1]Sheet1!D5</f>
@@ -851,7 +882,7 @@
       </c>
       <c r="F5" s="4" t="str">
         <f>[1]Sheet1!E5</f>
-        <v>-6.54***</v>
+        <v>-6.50***</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -882,19 +913,19 @@
       </c>
       <c r="B7" s="4" t="str">
         <f>[1]Sheet1!B9</f>
-        <v>-0.16***</v>
+        <v>-0.12***</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>[1]Sheet1!C9</f>
-        <v>-7.58***</v>
+        <v>-7.33***</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>[1]Sheet1!D9</f>
-        <v>-0.09***</v>
+        <v>-0.06***</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>[1]Sheet1!E9</f>
-        <v>-7.43***</v>
+        <v>-7.21***</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -925,11 +956,11 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>[1]Sheet1!B11</f>
-        <v>0.00***</v>
+        <v>-0.00***</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]Sheet1!C11</f>
-        <v>0.02***</v>
+        <v>0.01***</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>[1]Sheet1!D11</f>
@@ -937,7 +968,7 @@
       </c>
       <c r="F9" s="4" t="str">
         <f>[1]Sheet1!E11</f>
-        <v>0.02***</v>
+        <v>0.00***</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,7 +1011,7 @@
       </c>
       <c r="F11" s="4" t="str">
         <f>[1]Sheet1!E13</f>
-        <v>0.04***</v>
+        <v>0.03***</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1006,162 +1037,201 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f>[1]Sheet1!A17</f>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>[1]Sheet1!B15</f>
+        <v>0.25***</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>[1]Sheet1!C15</f>
+        <v>1.59***</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>[1]Sheet1!D15</f>
+        <v>0.23***</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>[1]Sheet1!E15</f>
+        <v>1.50***</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="str">
+        <f>[1]Sheet1!B16</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>[1]Sheet1!C16</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>[1]Sheet1!D16</f>
+        <v>(0.00)</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>[1]Sheet1!E16</f>
+        <v>(0.00)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>[1]Sheet1!A19</f>
         <v/>
       </c>
-      <c r="B13" s="4" t="str">
-        <f>[1]Sheet1!B17</f>
+      <c r="B15" s="4" t="str">
+        <f>[1]Sheet1!B19</f>
         <v/>
       </c>
-      <c r="C13" s="4" t="str">
-        <f>[1]Sheet1!C17</f>
+      <c r="C15" s="4" t="str">
+        <f>[1]Sheet1!C19</f>
         <v/>
       </c>
-      <c r="E13" s="4" t="str">
-        <f>[1]Sheet1!D17</f>
+      <c r="E15" s="4" t="str">
+        <f>[1]Sheet1!D19</f>
         <v/>
       </c>
-      <c r="F13" s="4" t="str">
-        <f>[1]Sheet1!E17</f>
+      <c r="F15" s="4" t="str">
+        <f>[1]Sheet1!E19</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="str">
-        <f>[1]Sheet1!A23</f>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="str">
+        <f>[1]Sheet1!A25</f>
         <v>Obs</v>
       </c>
-      <c r="B14" s="5" t="str">
-        <f>[1]Sheet1!B23</f>
+      <c r="B16" s="5" t="str">
+        <f>[1]Sheet1!B25</f>
         <v>3.376e+06</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f>[1]Sheet1!C23</f>
+      <c r="C16" s="5" t="str">
+        <f>[1]Sheet1!C25</f>
         <v>3.376e+06</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="str">
-        <f>[1]Sheet1!D23</f>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="str">
+        <f>[1]Sheet1!D25</f>
         <v>3.991e+06</v>
       </c>
-      <c r="F14" s="5" t="str">
-        <f>[1]Sheet1!E23</f>
+      <c r="F16" s="5" t="str">
+        <f>[1]Sheet1!E25</f>
         <v>3.991e+06</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <f>[1]Sheet1!B18</f>
+      <c r="B17" s="6" t="str">
+        <f>[1]Sheet1!B20</f>
         <v>887,534,856</v>
       </c>
-      <c r="C15" s="6" t="str">
-        <f>[1]Sheet1!C18</f>
+      <c r="C17" s="6" t="str">
+        <f>[1]Sheet1!C20</f>
         <v>887,534,856</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="str">
-        <f>[1]Sheet1!D18</f>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="str">
+        <f>[1]Sheet1!D20</f>
         <v>1169577977</v>
       </c>
-      <c r="F15" s="6" t="str">
-        <f>[1]Sheet1!E18</f>
+      <c r="F17" s="6" t="str">
+        <f>[1]Sheet1!E20</f>
         <v>1169577977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f>[1]Sheet1!A19</f>
-        <v>R-squared</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>[1]Sheet1!B19</f>
-        <v>0.18</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>[1]Sheet1!C19</f>
-        <v>0.16</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>[1]Sheet1!D19</f>
-        <v>0.14</v>
-      </c>
-      <c r="F16" s="4" t="str">
-        <f>[1]Sheet1!E19</f>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f>[1]Sheet1!A22</f>
-        <v>Dep var mean</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>[1]Sheet1!B22</f>
-        <v>2.272</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>[1]Sheet1!C22</f>
-        <v>41.29</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>[1]Sheet1!D22</f>
-        <v>2.213</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f>[1]Sheet1!E22</f>
-        <v>41.21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f>[1]Sheet1!A20</f>
+        <f>[1]Sheet1!A21</f>
+        <v>R-squared</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>[1]Sheet1!B21</f>
+        <v>0.18</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>[1]Sheet1!C21</f>
+        <v>0.16</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>[1]Sheet1!D21</f>
+        <v>0.14</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>[1]Sheet1!E21</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>[1]Sheet1!A24</f>
+        <v>Dep var mean</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>[1]Sheet1!B24</f>
+        <v>2.272</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>[1]Sheet1!C24</f>
+        <v>41.29</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>[1]Sheet1!D24</f>
+        <v>2.213</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>[1]Sheet1!E24</f>
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>[1]Sheet1!A22</f>
         <v>Municipality $\times$ Date FE</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f>[1]Sheet1!B20</f>
+      <c r="B20" s="4" t="str">
+        <f>[1]Sheet1!B22</f>
         <v>\checkmark</v>
       </c>
-      <c r="C18" s="4" t="str">
-        <f>[1]Sheet1!C20</f>
+      <c r="C20" s="4" t="str">
+        <f>[1]Sheet1!C22</f>
         <v>\checkmark</v>
       </c>
-      <c r="E18" s="4" t="str">
-        <f>[1]Sheet1!D20</f>
+      <c r="E20" s="4" t="str">
+        <f>[1]Sheet1!D22</f>
         <v>\checkmark</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f>[1]Sheet1!E20</f>
+      <c r="F20" s="4" t="str">
+        <f>[1]Sheet1!E22</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="str">
-        <f>[1]Sheet1!A21</f>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="str">
+        <f>[1]Sheet1!A23</f>
         <v>Occupation FE</v>
       </c>
-      <c r="B19" s="7" t="str">
-        <f>[1]Sheet1!B21</f>
+      <c r="B21" s="7" t="str">
+        <f>[1]Sheet1!B23</f>
         <v>\checkmark</v>
       </c>
-      <c r="C19" s="7" t="str">
-        <f>[1]Sheet1!C21</f>
+      <c r="C21" s="7" t="str">
+        <f>[1]Sheet1!C23</f>
         <v>\checkmark</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="str">
-        <f>[1]Sheet1!D21</f>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="str">
+        <f>[1]Sheet1!D23</f>
         <v>\checkmark</v>
       </c>
-      <c r="F19" s="7" t="str">
-        <f>[1]Sheet1!E21</f>
+      <c r="F21" s="7" t="str">
+        <f>[1]Sheet1!E23</f>
         <v>\checkmark</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
